--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H2">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I2">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J2">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N2">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q2">
-        <v>877.3759020856585</v>
+        <v>4091.770213873367</v>
       </c>
       <c r="R2">
-        <v>877.3759020856585</v>
+        <v>36825.93192486031</v>
       </c>
       <c r="S2">
-        <v>0.3814066878188482</v>
+        <v>0.542641014439477</v>
       </c>
       <c r="T2">
-        <v>0.3814066878188482</v>
+        <v>0.5426410144394771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H3">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I3">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J3">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N3">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P3">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q3">
-        <v>252.1305513653907</v>
+        <v>334.4156175069724</v>
       </c>
       <c r="R3">
-        <v>252.1305513653907</v>
+        <v>3009.740557562751</v>
       </c>
       <c r="S3">
-        <v>0.1096044218511316</v>
+        <v>0.04434941857514672</v>
       </c>
       <c r="T3">
-        <v>0.1096044218511316</v>
+        <v>0.04434941857514672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H4">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I4">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J4">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N4">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q4">
-        <v>146.2557016174478</v>
+        <v>196.157045233866</v>
       </c>
       <c r="R4">
-        <v>146.2557016174478</v>
+        <v>1765.413407104794</v>
       </c>
       <c r="S4">
-        <v>0.06357925103245705</v>
+        <v>0.02601388945406934</v>
       </c>
       <c r="T4">
-        <v>0.06357925103245705</v>
+        <v>0.02601388945406934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H5">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I5">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J5">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N5">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q5">
-        <v>321.7998196085319</v>
+        <v>1201.410005404241</v>
       </c>
       <c r="R5">
-        <v>321.7998196085319</v>
+        <v>10812.69004863817</v>
       </c>
       <c r="S5">
-        <v>0.1398905566540283</v>
+        <v>0.15932819049317</v>
       </c>
       <c r="T5">
-        <v>0.1398905566540283</v>
+        <v>0.15932819049317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H6">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I6">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J6">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N6">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P6">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q6">
-        <v>92.47526146354217</v>
+        <v>98.18984151995889</v>
       </c>
       <c r="R6">
-        <v>92.47526146354217</v>
+        <v>883.70857367963</v>
       </c>
       <c r="S6">
-        <v>0.04020019594354907</v>
+        <v>0.01302170758010482</v>
       </c>
       <c r="T6">
-        <v>0.04020019594354907</v>
+        <v>0.01302170758010483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H7">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I7">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J7">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N7">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q7">
-        <v>53.64298048913019</v>
+        <v>57.59488545457999</v>
       </c>
       <c r="R7">
-        <v>53.64298048913019</v>
+        <v>518.3539690912199</v>
       </c>
       <c r="S7">
-        <v>0.02331929958921159</v>
+        <v>0.007638099266579684</v>
       </c>
       <c r="T7">
-        <v>0.02331929958921159</v>
+        <v>0.007638099266579685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H8">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I8">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J8">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N8">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q8">
-        <v>382.8494346290922</v>
+        <v>1381.764905733871</v>
       </c>
       <c r="R8">
-        <v>382.8494346290922</v>
+        <v>12435.88415160484</v>
       </c>
       <c r="S8">
-        <v>0.1664296163686345</v>
+        <v>0.1832464363766202</v>
       </c>
       <c r="T8">
-        <v>0.1664296163686345</v>
+        <v>0.1832464363766202</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H9">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I9">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J9">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N9">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P9">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q9">
-        <v>110.0190224207196</v>
+        <v>112.9300376237492</v>
       </c>
       <c r="R9">
-        <v>110.0190224207196</v>
+        <v>1016.370338613743</v>
       </c>
       <c r="S9">
-        <v>0.04782669644653348</v>
+        <v>0.01497651797969124</v>
       </c>
       <c r="T9">
-        <v>0.04782669644653348</v>
+        <v>0.01497651797969125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H10">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I10">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J10">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N10">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q10">
-        <v>63.81975222070141</v>
+        <v>66.240992760938</v>
       </c>
       <c r="R10">
-        <v>63.81975222070141</v>
+        <v>596.1689348484419</v>
       </c>
       <c r="S10">
-        <v>0.02774327429560616</v>
+        <v>0.008784725835140917</v>
       </c>
       <c r="T10">
-        <v>0.02774327429560616</v>
+        <v>0.008784725835140918</v>
       </c>
     </row>
   </sheetData>
